--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.wylie\Documents\UiPath\TestingLCATProcess\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C723B9-A0AE-4503-B095-D71CC82F5DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA49573A-9F7C-4F6F-8697-E84914349B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2610" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -240,15 +240,6 @@
     <t>LocalResumeFolderPath</t>
   </si>
   <si>
-    <t>C:\Users\patrick.wylie\Documents\UiPath\TestingLCATProcess\Resumes\</t>
-  </si>
-  <si>
-    <t>C:\Users\patrick.wylie\Documents\UiPath\TestingLCATProcess\EmailAttachments\</t>
-  </si>
-  <si>
-    <t>C:\Users\patrick.wylie\Documents\UiPath\TestingLCATProcess\LCATRoles.xlsx</t>
-  </si>
-  <si>
     <t>LCATCatagoryXLSXPath</t>
   </si>
   <si>
@@ -274,6 +265,60 @@
   </si>
   <si>
     <t>PMO TEAM 1</t>
+  </si>
+  <si>
+    <t>C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\EmailAttachments\</t>
+  </si>
+  <si>
+    <t>C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\Resumes\</t>
+  </si>
+  <si>
+    <t>C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\LCATRoles.xlsx</t>
+  </si>
+  <si>
+    <t>LocalRollonFormsFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\RollOnForms\</t>
+  </si>
+  <si>
+    <t>Local Drive Path to Roll on Forms</t>
+  </si>
+  <si>
+    <t>ResumeReviewTemplatePath</t>
+  </si>
+  <si>
+    <t>C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\Resume_Review_Template.pdf</t>
+  </si>
+  <si>
+    <t>LocalResumeReviewFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\ResumeReviews\</t>
+  </si>
+  <si>
+    <t>Path to the template of the Resume Review PDF used to generate new Reviews.</t>
+  </si>
+  <si>
+    <t>Local Drive Path to the Resume Review Folder</t>
+  </si>
+  <si>
+    <t>LocalZIPFoldersPath</t>
+  </si>
+  <si>
+    <t>C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\ZipFolders\</t>
+  </si>
+  <si>
+    <t>LocalZippedFilesFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\patrick.wylie\Documents\UiPath\PrivateRepos\PMOLCATDemo\ZippedFiles\</t>
+  </si>
+  <si>
+    <t>Local Drive Path to Folders to be Zipped</t>
+  </si>
+  <si>
+    <t>Local Drive Path to Zipped Files</t>
   </si>
 </sst>
 </file>
@@ -646,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -800,10 +845,10 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,50 +856,103 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1831,11 +1929,18 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{2ABF4675-D18D-4537-B741-65ECB6A0885F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
